--- a/imgdone/result_links.xlsx
+++ b/imgdone/result_links.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>stt ảnh</t>
+          <t>stt ảnh đã chọn</t>
         </is>
       </c>
     </row>
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -461,139 +461,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://shopee.vn/Qu%E1%BA%A7n-N%E1%BB%89-2-Da-S%E1%BB%8Dc-Ph%E1%BB%91i-Vi%E1%BB%81n-ZUTEE-%E1%BB%90ng-R%E1%BB%99ng-Ki%E1%BB%83u-D%C3%A1ng-Th%E1%BB%83-Thao-D%C3%A1ng-Su%C3%B4ng-QS25-i.415614249.28540461308</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>C:\toollinkanh\nhandienvatthe\imgdone\003.jpg</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>976.90</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.9358</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>821.97</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>http://shopee.vn/Qu%E1%BA%A7n-%E1%BB%91ng-r%E1%BB%99ng-k%E1%BA%BB-s%E1%BB%8Dc-ZUTEE-form-qu%E1%BA%A7n-%E1%BB%91ng-su%C3%B4ng-unisex-v%E1%BA%A3i-kh%C3%B4ng-nh%C4%83n-m%E1%BB%81m-m%C3%A1t-i.415614249.42357012884?extraParams=%7B%22display_model_id%22%3A290595345010%2C%22model_selection_logic%22%3A3%7D&amp;sp_atk=d3035470-3fe3-4581-94dd-98bb86aa3ec6&amp;xptdk=d3035470-3fe3-4581-94dd-98bb86aa3ec6</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>C:\toollinkanh\nhandienvatthe\imgdone\004.jpg</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>865.42</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.8392</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>524.35</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://shopee.vn/Qu%E1%BA%A7n-N%E1%BB%89-2-Da-S%E1%BB%8Dc-Ph%E1%BB%91i-Vi%E1%BB%81n-ZUTEE-%E1%BB%90ng-R%E1%BB%99ng-Ki%E1%BB%83u-D%C3%A1ng-Th%E1%BB%83-Thao-D%C3%A1ng-Su%C3%B4ng-QS25-i.415614249.28540461308</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>C:\toollinkanh\nhandienvatthe\imgdone\005.jpg</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>976.90</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.9358</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>821.97</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>http://shopee.vn/Qu%E1%BA%A7n-%E1%BB%91ng-r%E1%BB%99ng-k%E1%BA%BB-s%E1%BB%8Dc-ZUTEE-form-qu%E1%BA%A7n-%E1%BB%91ng-su%C3%B4ng-unisex-v%E1%BA%A3i-kh%C3%B4ng-nh%C4%83n-m%E1%BB%81m-m%C3%A1t-i.415614249.42357012884?extraParams=%7B%22display_model_id%22%3A290595345010%2C%22model_selection_logic%22%3A3%7D&amp;sp_atk=d3035470-3fe3-4581-94dd-98bb86aa3ec6&amp;xptdk=d3035470-3fe3-4581-94dd-98bb86aa3ec6</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>C:\toollinkanh\nhandienvatthe\imgdone\006.jpg</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>865.42</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.8392</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>524.35</t>
-        </is>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
